--- a/LeafPaymentReport.xlsx
+++ b/LeafPaymentReport.xlsx
@@ -474,7 +474,7 @@
         <v>2302</v>
       </c>
       <c r="C2">
-        <v>48342</v>
+        <v>52946</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -485,7 +485,7 @@
         <v>359</v>
       </c>
       <c r="C3">
-        <v>7539</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -496,7 +496,7 @@
         <v>650</v>
       </c>
       <c r="C4">
-        <v>13650</v>
+        <v>14950</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -507,7 +507,7 @@
         <v>457</v>
       </c>
       <c r="C5">
-        <v>9597</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -518,7 +518,7 @@
         <v>1492</v>
       </c>
       <c r="C6">
-        <v>31332</v>
+        <v>34316</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -529,7 +529,7 @@
         <v>703</v>
       </c>
       <c r="C7">
-        <v>14763</v>
+        <v>16169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -540,7 +540,7 @@
         <v>1033</v>
       </c>
       <c r="C8">
-        <v>21693</v>
+        <v>23759</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -551,7 +551,7 @@
         <v>11731</v>
       </c>
       <c r="C9">
-        <v>246351</v>
+        <v>269813</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -562,7 +562,7 @@
         <v>717</v>
       </c>
       <c r="C10">
-        <v>15057</v>
+        <v>16491</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -573,7 +573,7 @@
         <v>3323</v>
       </c>
       <c r="C11">
-        <v>69783</v>
+        <v>76429</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -584,7 +584,7 @@
         <v>716</v>
       </c>
       <c r="C12">
-        <v>15036</v>
+        <v>16468</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -595,7 +595,7 @@
         <v>1000</v>
       </c>
       <c r="C13">
-        <v>21000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -606,7 +606,7 @@
         <v>203</v>
       </c>
       <c r="C14">
-        <v>4263</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -617,7 +617,7 @@
         <v>323</v>
       </c>
       <c r="C15">
-        <v>6783</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -628,7 +628,7 @@
         <v>3003</v>
       </c>
       <c r="C16">
-        <v>63063</v>
+        <v>69069</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -639,7 +639,7 @@
         <v>10703</v>
       </c>
       <c r="C17">
-        <v>224763</v>
+        <v>246169</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="C18">
-        <v>546</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -661,7 +661,7 @@
         <v>3967</v>
       </c>
       <c r="C19">
-        <v>83307</v>
+        <v>91241</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -672,7 +672,7 @@
         <v>500</v>
       </c>
       <c r="C20">
-        <v>10500</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -683,7 +683,7 @@
         <v>2125</v>
       </c>
       <c r="C21">
-        <v>44625</v>
+        <v>48875</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -694,7 +694,7 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>840</v>
+        <v>920</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -705,7 +705,7 @@
         <v>45373</v>
       </c>
       <c r="C23">
-        <v>952833</v>
+        <v>1043579</v>
       </c>
     </row>
   </sheetData>
